--- a/data/trans_orig/IP05A06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP05A06-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA44164-FE94-44E3-A3FE-722CD014E408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69EE63BA-F824-42C6-89CD-3971317772CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E16789FF-F0AA-43F6-8990-B741C77EC403}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D02FAB6B-7461-4333-8457-EEFCC7EDD550}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="340">
   <si>
     <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2012 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -106,973 +106,958 @@
     <t>70,95%</t>
   </si>
   <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>67,57%</t>
   </si>
   <si>
-    <t>61,44%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>72,54%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2016 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,74%)</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2015 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay delincuencia/inseguridad en 2023 (Tasa respuesta: 99,74%)</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>7,56%</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E686DB4F-541C-4F17-B73B-38E1D8F36DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32444AED-E58D-49A3-9449-A54FC2A0111D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2027,13 +2012,13 @@
         <v>326780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>983</v>
@@ -2042,13 +2027,13 @@
         <v>684474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2048,13 @@
         <v>122575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -2078,13 +2063,13 @@
         <v>113281</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>342</v>
@@ -2093,13 +2078,13 @@
         <v>235855</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2099,13 @@
         <v>13457</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2129,13 +2114,13 @@
         <v>10415</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>35</v>
@@ -2144,13 +2129,13 @@
         <v>23873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2191,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2218,13 +2203,13 @@
         <v>123801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="H16" s="7">
         <v>163</v>
@@ -2544,10 +2529,10 @@
         <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -2556,13 +2541,13 @@
         <v>42433</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,7 +2603,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2638,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F217F-29E7-4D46-B4AF-0FD3A4B5A819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D792B0C-F523-46AB-B481-436D9B7E38AA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2655,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2944,13 +2929,13 @@
         <v>49617</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -2959,13 +2944,13 @@
         <v>40804</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>133</v>
@@ -2974,13 +2959,13 @@
         <v>90421</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2980,13 @@
         <v>13200</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -3010,13 +2995,13 @@
         <v>16099</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M9" s="7">
         <v>42</v>
@@ -3025,13 +3010,13 @@
         <v>29299</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3031,13 @@
         <v>4393</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3061,13 +3046,13 @@
         <v>1911</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3076,13 +3061,13 @@
         <v>6304</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3135,13 @@
         <v>368516</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H12" s="7">
         <v>537</v>
@@ -3165,13 +3150,13 @@
         <v>354952</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>1059</v>
@@ -3180,13 +3165,13 @@
         <v>723468</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3186,13 @@
         <v>101850</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -3216,13 +3201,13 @@
         <v>96420</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>292</v>
@@ -3231,13 +3216,13 @@
         <v>198270</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3237,13 @@
         <v>16871</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -3267,13 +3252,13 @@
         <v>19178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>53</v>
@@ -3282,13 +3267,13 @@
         <v>36048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,7 +3329,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3356,13 +3341,13 @@
         <v>147512</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>198</v>
@@ -3371,13 +3356,13 @@
         <v>133201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>411</v>
@@ -3386,13 +3371,13 @@
         <v>280714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3392,13 @@
         <v>32727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -3422,13 +3407,13 @@
         <v>35355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -3437,13 +3422,13 @@
         <v>68083</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3443,13 @@
         <v>6590</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -3473,13 +3458,13 @@
         <v>2900</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -3488,13 +3473,13 @@
         <v>9490</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3547,13 @@
         <v>565645</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>798</v>
@@ -3577,13 +3562,13 @@
         <v>528958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>1603</v>
@@ -3592,13 +3577,13 @@
         <v>1094603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3598,13 @@
         <v>147777</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -3628,13 +3613,13 @@
         <v>147875</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M21" s="7">
         <v>436</v>
@@ -3643,13 +3628,13 @@
         <v>295652</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3649,13 @@
         <v>27854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3679,13 +3664,13 @@
         <v>23989</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -3694,13 +3679,13 @@
         <v>51843</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,7 +3741,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF472F7-40F0-4E2F-944C-942E9CD9AD65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB315-27AD-4336-92E3-4E5E9B0B0EE1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3793,7 +3778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4082,13 +4067,13 @@
         <v>41023</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -4097,13 +4082,13 @@
         <v>40108</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>115</v>
@@ -4112,13 +4097,13 @@
         <v>81131</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4118,13 @@
         <v>10799</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4148,13 +4133,13 @@
         <v>6860</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M9" s="7">
         <v>21</v>
@@ -4163,13 +4148,13 @@
         <v>17658</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4169,13 @@
         <v>6935</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4199,13 +4184,13 @@
         <v>4234</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4214,13 +4199,13 @@
         <v>11169</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4273,13 @@
         <v>413281</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H12" s="7">
         <v>529</v>
@@ -4303,13 +4288,13 @@
         <v>362552</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>1076</v>
@@ -4318,13 +4303,13 @@
         <v>775834</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4324,13 @@
         <v>51566</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -4354,13 +4339,13 @@
         <v>59136</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -4369,13 +4354,13 @@
         <v>110703</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4375,13 @@
         <v>25850</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4405,13 +4390,13 @@
         <v>28279</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -4420,13 +4405,13 @@
         <v>54129</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4467,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4494,13 +4479,13 @@
         <v>150304</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>207</v>
@@ -4509,13 +4494,13 @@
         <v>134089</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>414</v>
@@ -4524,13 +4509,13 @@
         <v>284394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4530,13 @@
         <v>17875</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -4560,13 +4545,13 @@
         <v>12918</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -4575,13 +4560,13 @@
         <v>30793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4581,13 @@
         <v>5501</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4611,13 +4596,13 @@
         <v>4363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -4626,13 +4611,13 @@
         <v>9865</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4685,13 @@
         <v>604609</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>790</v>
@@ -4715,13 +4700,13 @@
         <v>536750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>1605</v>
@@ -4730,13 +4715,13 @@
         <v>1141359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4736,13 @@
         <v>80240</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H21" s="7">
         <v>110</v>
@@ -4766,13 +4751,13 @@
         <v>78914</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M21" s="7">
         <v>214</v>
@@ -4781,13 +4766,13 @@
         <v>159154</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4787,13 @@
         <v>38287</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>338</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -4817,13 +4802,13 @@
         <v>36876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -4832,13 +4817,13 @@
         <v>75163</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,7 +4879,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
